--- a/branches/master/StructureDefinition-CD.xlsx
+++ b/branches/master/StructureDefinition-CD.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:07+00:00</t>
+    <t>2023-02-04T16:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-CD.xlsx
+++ b/branches/master/StructureDefinition-CD.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:39+00:00</t>
+    <t>2023-02-04T16:53:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-CD.xlsx
+++ b/branches/master/StructureDefinition-CD.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:53:50+00:00</t>
+    <t>2023-02-20T20:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Concept descriptor</t>
+    <t>ConceptDescriptor</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>coded</t>
-  </si>
-  <si>
-    <t>Concept Descriptor</t>
+    <t>A reference to a concept defined in a code system</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -813,7 +810,7 @@
         <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -873,21 +870,21 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -898,25 +895,25 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -967,13 +964,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -982,19 +979,19 @@
         <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1013,16 +1010,16 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1060,19 +1057,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="AF4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1084,10 +1081,10 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
